--- a/pythonPytest-1/excel_data_reading/write2cell.xlsx
+++ b/pythonPytest-1/excel_data_reading/write2cell.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14595" windowWidth="22695" xWindow="-98" yWindow="-98"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3638" yWindow="720" windowWidth="16875" windowHeight="13680" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_test-1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="add_test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="add_test (2)" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="1" name="tblCorporate">add_test!$A$1:$G$6</definedName>
+    <definedName name="tblCorporate" localSheetId="1">add_test!$A$1:$G$6</definedName>
+    <definedName name="tblCorporate" localSheetId="2">'add_test (2)'!$A$1:$G$6</definedName>
     <definedName name="tblCorporate">'add_test-1'!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -47,15 +49,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -455,16 +457,16 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B2" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="11.06640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="20.796875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="22.59765625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="13.59765625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="13.265625"/>
+    <col width="11.06640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20.796875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="22.59765625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.59765625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.265625" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -686,7 +688,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -698,17 +700,17 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="11.06640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="20.796875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="22.59765625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="13.59765625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="13.265625"/>
+    <col width="11.06640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20.796875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="22.59765625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.59765625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.265625" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -806,6 +808,207 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="11.06640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20.796875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="22.59765625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.59765625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.265625" bestFit="1" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CorporateID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CompanyName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>StreetAddress</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tesuque Mirage Market</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8 Tesuque Mirage Rd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87506</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hotel Playa Real</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>125 Madison Avenue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87508</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bouzouki Museum</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>716 Camino Cercano</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87505</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>McDoakes Restaurant</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2017 High St</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87501</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Benson &amp; Diaz</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1953 A Piazza Pl, Suite 101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Santo Domingo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87052</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>